--- a/utils/evaluation&results_test.xlsx
+++ b/utils/evaluation&results_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joaomanso/Desktop/Master Thesis/Images/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao.Manso\Desktop\Personal\Github\projects\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52FAD987-0B6A-154A-A5DF-DD90A8D6A662}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923FDA81-97E3-4BCD-8F31-5DD95EEE7182}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14380" activeTab="2" xr2:uid="{A74677D9-22E8-9C4C-838B-280AB31EB457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A74677D9-22E8-9C4C-838B-280AB31EB457}"/>
   </bookViews>
   <sheets>
     <sheet name="average_both_each" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="38">
   <si>
     <t>Average</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>User Percentage</t>
-  </si>
-  <si>
-    <t>Time to Run</t>
   </si>
   <si>
     <t>Popularity-Based Model</t>
@@ -171,7 +168,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -195,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,8 +205,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -230,15 +239,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -325,12 +325,71 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -344,7 +403,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -355,33 +413,67 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +551,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -523,7 +615,7 @@
             <c:numRef>
               <c:f>average_both_each!$B$2:$B$6</c:f>
               <c:numCache>
-                <c:formatCode>#,#00%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -604,7 +696,7 @@
             <c:numRef>
               <c:f>average_both_each!$C$2:$C$6</c:f>
               <c:numCache>
-                <c:formatCode>#,#00%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -695,7 +787,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -730,7 +822,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1925686223"/>
@@ -761,7 +853,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,#00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -786,7 +878,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1925684543"/>
@@ -825,7 +917,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -862,7 +954,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -932,7 +1024,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -996,7 +1088,7 @@
             <c:numRef>
               <c:f>average_both_each!$D$2:$D$6</c:f>
               <c:numCache>
-                <c:formatCode>#,#00%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1077,7 +1169,7 @@
             <c:numRef>
               <c:f>average_both_each!$E$2:$E$6</c:f>
               <c:numCache>
-                <c:formatCode>#,#00%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -1168,7 +1260,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1203,7 +1295,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1925680287"/>
@@ -1234,7 +1326,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,#00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1259,7 +1351,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1925678655"/>
@@ -1298,7 +1390,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1335,7 +1427,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1405,7 +1497,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1641,7 +1733,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1676,7 +1768,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="997003935"/>
@@ -1752,7 +1844,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1781,7 +1873,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1050510079"/>
@@ -1820,7 +1912,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1857,7 +1949,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1927,7 +2019,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2001,7 +2093,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2033,7 +2125,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>average_both_f!$B$1:$C$1</c:f>
+              <c:f>average_both_f!$C$3:$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2047,7 +2139,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>average_both_f!$B$7:$C$7</c:f>
+              <c:f>average_both_f!$C$9:$D$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2118,7 +2210,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="604034975"/>
@@ -2174,7 +2266,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="604601007"/>
@@ -2222,7 +2314,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2298,7 +2390,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2381,7 +2473,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="inEnd"/>
@@ -2414,7 +2506,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>average_both_f!$D$1:$E$1</c:f>
+              <c:f>average_both_f!$E$3:$F$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
@@ -2428,7 +2520,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>average_both_f!$D$7:$E$7</c:f>
+              <c:f>average_both_f!$E$9:$F$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="2"/>
@@ -2502,7 +2594,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="604967823"/>
@@ -2561,7 +2653,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="584512319"/>
@@ -2609,7 +2701,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2621,515 +2713,6 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Time to Run vs. User percentage</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>average_both_f!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Time to Run</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="ctr"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>average_both_f!$A$2:$A$6</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.01</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>average_both_f!$F$2:$F$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0.120906</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.7362062335016667</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.2875753998749999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.0542937318500001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.7119373003666665</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4D01-F441-9B5D-53CBD56A14CA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:dLblPos val="ctr"/>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="1020538799"/>
-        <c:axId val="1020795679"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="1020538799"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>User percentage</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1020795679"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1020795679"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Minutes</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1020538799"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3188,7 +2771,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3231,7 +2814,7 @@
             <c:numRef>
               <c:f>cutoff_point_analysis!$W$5:$W$14</c:f>
               <c:numCache>
-                <c:formatCode>#,#00%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>2.1931591877199265E-2</c:v>
@@ -3306,7 +2889,7 @@
             <c:numRef>
               <c:f>cutoff_point_analysis!$X$5:$X$14</c:f>
               <c:numCache>
-                <c:formatCode>#,#00%</c:formatCode>
+                <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.13497793901362864</c:v>
@@ -3397,7 +2980,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1064945343"/>
@@ -3428,7 +3011,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="#,#00%" sourceLinked="1"/>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3453,7 +3036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1084645903"/>
@@ -3492,7 +3075,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3529,7 +3112,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3540,7 +3123,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3580,7 +3163,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3861,7 +3444,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585122079"/>
@@ -3920,7 +3503,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585598047"/>
@@ -3962,7 +3545,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3999,7 +3582,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4010,7 +3593,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4050,7 +3633,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4236,7 +3819,7 @@
             <c:numRef>
               <c:f>recall_cutoff!$C$2:$C$11</c:f>
               <c:numCache>
-                <c:formatCode>#,#00</c:formatCode>
+                <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0.133333333333333</c:v>
@@ -4331,7 +3914,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="584886447"/>
@@ -4390,7 +3973,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="585012527"/>
@@ -4432,7 +4015,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4469,7 +4052,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4644,9 +4227,12 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
   <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
@@ -4760,46 +4346,6 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
   <cs:axisTitle>
@@ -7176,7 +6722,475 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk2">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700">
+        <a:solidFill>
+          <a:schemeClr val="lt2"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="2"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -7678,978 +7692,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="231">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="31750" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="12700">
-        <a:solidFill>
-          <a:schemeClr val="lt2"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="dash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -9274,16 +8317,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>838425</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>140039</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571725</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>178139</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>508001</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>12701</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>241301</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>50801</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9312,16 +8355,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>901700</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>162516</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>187324</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9343,42 +8386,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>679450</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F86989DD-19E2-8246-A2BE-125A54F6B53B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9809,140 +8816,140 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90603A28-389D-184E-BAC9-79BB8443D46B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="10">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>0.01</v>
       </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="10">
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0</v>
+      </c>
+      <c r="D2" s="11">
+        <v>0</v>
+      </c>
+      <c r="E2" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>0.05</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>2.8023809523809499E-2</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="C3" s="11">
+        <v>0</v>
+      </c>
+      <c r="D3" s="11">
         <v>2.9948717948717906E-2</v>
       </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="10">
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>0.1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>1.8169482846902181E-2</v>
       </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="C4" s="11">
+        <v>0</v>
+      </c>
+      <c r="D4" s="11">
         <v>4.029776674937964E-2</v>
       </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="11">
+      <c r="E4" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <v>0.15</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="11">
         <v>2.6778959810874647E-2</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="11">
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
         <v>4.2739459122437776E-2</v>
       </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11">
+      <c r="E5" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <v>0.2</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>2.4064625850340079E-2</v>
       </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="C6" s="11">
+        <v>0</v>
+      </c>
+      <c r="D6" s="11">
         <v>3.3858395286966672E-2</v>
       </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="E6" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <f>AVERAGE(B2:B6)</f>
         <v>1.9407375606385283E-2</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="15">
         <f t="shared" ref="C7:E7" si="0">AVERAGE(C2:C6)</f>
         <v>0</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <f t="shared" si="0"/>
         <v>2.9368867821500399E-2</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9961,70 +8968,70 @@
       <selection sqref="A1:J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>24</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>26</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>28</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>29</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>31</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>33</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>34</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>35</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -10038,16 +9045,16 @@
   <sheetViews>
     <sheetView zoomScale="91" zoomScaleNormal="399" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="20.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -10058,7 +9065,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -10070,7 +9077,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -10082,7 +9089,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -10094,7 +9101,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -10106,7 +9113,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -10118,7 +9125,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -10130,7 +9137,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -10142,7 +9149,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -10154,7 +9161,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -10166,7 +9173,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -10178,7 +9185,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -10203,16 +9210,16 @@
       <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="20.375" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>1</v>
       </c>
@@ -10223,7 +9230,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>1</v>
       </c>
@@ -10235,7 +9242,7 @@
       </c>
       <c r="D2" s="5"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>2</v>
       </c>
@@ -10247,7 +9254,7 @@
       </c>
       <c r="D3" s="5"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>3</v>
       </c>
@@ -10259,7 +9266,7 @@
       </c>
       <c r="D4" s="5"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -10271,7 +9278,7 @@
       </c>
       <c r="D5" s="5"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>5</v>
       </c>
@@ -10283,7 +9290,7 @@
       </c>
       <c r="D6" s="5"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>6</v>
       </c>
@@ -10295,7 +9302,7 @@
       </c>
       <c r="D7" s="5"/>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -10307,7 +9314,7 @@
       </c>
       <c r="D8" s="5"/>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>8</v>
       </c>
@@ -10319,7 +9326,7 @@
       </c>
       <c r="D9" s="5"/>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>9</v>
       </c>
@@ -10331,7 +9338,7 @@
       </c>
       <c r="D10" s="5"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>10</v>
       </c>
@@ -10343,7 +9350,7 @@
       </c>
       <c r="D11" s="5"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>0</v>
       </c>
@@ -10368,24 +9375,24 @@
       <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="10">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="9">
         <v>0.01</v>
       </c>
       <c r="B2" s="1">
@@ -10395,8 +9402,8 @@
         <v>0.120906</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="10">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="9">
         <v>0.05</v>
       </c>
       <c r="B3" s="1">
@@ -10406,8 +9413,8 @@
         <v>0.7362062335016667</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="10">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="9">
         <v>0.1</v>
       </c>
       <c r="B4" s="1">
@@ -10417,8 +9424,8 @@
         <v>1.2875753998749999</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="10">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="9">
         <v>0.15</v>
       </c>
       <c r="B5" s="1">
@@ -10428,8 +9435,8 @@
         <v>2.0542937318500001</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="10">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="9">
         <v>0.2</v>
       </c>
       <c r="B6" s="1">
@@ -10447,165 +9454,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DA183B-AEE9-3E40-A53D-0D2D5EDFD43B}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="21.5" customWidth="1"/>
     <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C2" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="27"/>
+      <c r="E2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="29"/>
+      <c r="G2" s="37"/>
+    </row>
+    <row r="3" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C3" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="E3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10">
+    </row>
+    <row r="4" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="32">
         <v>0.01</v>
       </c>
-      <c r="B2" s="12">
-        <v>0</v>
-      </c>
-      <c r="C2" s="12">
-        <v>0</v>
-      </c>
-      <c r="D2" s="12">
-        <v>0</v>
-      </c>
-      <c r="E2" s="12">
-        <v>0</v>
-      </c>
-      <c r="F2" s="1">
-        <v>0.120906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="10">
+      <c r="C4" s="33">
+        <v>0</v>
+      </c>
+      <c r="D4" s="33">
+        <v>0</v>
+      </c>
+      <c r="E4" s="33">
+        <v>0</v>
+      </c>
+      <c r="F4" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="32">
         <v>0.05</v>
       </c>
-      <c r="B3" s="12">
+      <c r="C5" s="33">
         <v>2.8023809523809499E-2</v>
       </c>
-      <c r="C3" s="12">
-        <v>0</v>
-      </c>
-      <c r="D3" s="12">
+      <c r="D5" s="33">
+        <v>0</v>
+      </c>
+      <c r="E5" s="33">
         <v>2.9948717948717906E-2</v>
       </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>0.7362062335016667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="10">
+      <c r="F5" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="32">
         <v>0.1</v>
       </c>
-      <c r="B4" s="12">
+      <c r="C6" s="33">
         <v>1.8169482846902181E-2</v>
       </c>
-      <c r="C4" s="12">
-        <v>0</v>
-      </c>
-      <c r="D4" s="12">
+      <c r="D6" s="33">
+        <v>0</v>
+      </c>
+      <c r="E6" s="33">
         <v>4.029776674937964E-2</v>
       </c>
-      <c r="E4" s="12">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.2875753998749999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="11">
+      <c r="F6" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="32">
         <v>0.15</v>
       </c>
-      <c r="B5" s="12">
+      <c r="C7" s="33">
         <v>2.6778959810874647E-2</v>
       </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="D7" s="33">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33">
         <v>4.2739459122437776E-2</v>
       </c>
-      <c r="E5" s="12">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>2.0542937318500001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="11">
+      <c r="F7" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="32">
         <v>0.2</v>
       </c>
-      <c r="B6" s="12">
+      <c r="C8" s="33">
         <v>2.4064625850340079E-2</v>
       </c>
-      <c r="C6" s="12">
-        <v>0</v>
-      </c>
-      <c r="D6" s="12">
+      <c r="D8" s="33">
+        <v>0</v>
+      </c>
+      <c r="E8" s="33">
         <v>3.3858395286966672E-2</v>
       </c>
-      <c r="E6" s="12">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>2.7119373003666665</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="16">
-        <f>AVERAGE(B2:B6)</f>
+      <c r="F8" s="33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="35">
+        <f>AVERAGE(C4:C8)</f>
         <v>1.9407375606385283E-2</v>
       </c>
-      <c r="C7" s="16">
-        <f t="shared" ref="C7:E7" si="0">AVERAGE(C2:C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="17">
+      <c r="D9" s="35">
+        <f t="shared" ref="D9:F9" si="0">AVERAGE(D4:D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="36">
         <f t="shared" si="0"/>
         <v>2.9368867821500399E-2</v>
       </c>
-      <c r="E7" s="17">
+      <c r="F9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -10619,179 +9620,179 @@
       <selection activeCell="W2" sqref="W2:Z2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="21" width="10.83203125" style="13"/>
-    <col min="22" max="22" width="3" style="13" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="21" width="10.875" style="12"/>
+    <col min="22" max="22" width="3" style="12" customWidth="1"/>
+    <col min="23" max="16384" width="10.875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17" thickBot="1"/>
-    <row r="2" spans="1:26" ht="17" thickBot="1">
-      <c r="B2" s="18" t="s">
+    <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="18" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="18" t="s">
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="18" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="S2" s="19"/>
-      <c r="T2" s="19"/>
-      <c r="U2" s="20"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="20"/>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="B3" s="25" t="s">
+      <c r="S2" s="20"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="21"/>
+      <c r="W2" s="19"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="21"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B3" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="17"/>
+      <c r="D3" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="22"/>
+      <c r="H3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="23"/>
+      <c r="J3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="O3" s="22"/>
+      <c r="P3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="25"/>
+      <c r="T3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="23"/>
+      <c r="W3" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z3" s="23"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="24" t="s">
+      <c r="C4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="24"/>
-      <c r="H3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24" t="s">
+      <c r="E4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="24"/>
-      <c r="L3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24" t="s">
+      <c r="G4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O3" s="24"/>
-      <c r="P3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="21" t="s">
+      <c r="I4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="S3" s="22"/>
-      <c r="T3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="23"/>
-      <c r="W3" s="21" t="s">
+      <c r="K4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z3" s="23"/>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="N4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="P4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="14" t="s">
+      <c r="R4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="T4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="K4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="14" t="s">
+      <c r="W4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" s="14" t="s">
+      <c r="Y4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="S4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="T4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="U4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="W4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="X4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="Y4" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" s="14">
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="13">
         <v>1</v>
       </c>
       <c r="B5" s="1">
@@ -10854,25 +9855,25 @@
       <c r="U5" s="1">
         <v>1.0204081632653E-2</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="14">
         <f>AVERAGE(B5,F5,J5,N5,R5)</f>
         <v>2.1931591877199265E-2</v>
       </c>
-      <c r="X5" s="15">
+      <c r="X5" s="14">
         <f>AVERAGE(C5,G5,K5,O5,S5)</f>
         <v>0.13497793901362864</v>
       </c>
-      <c r="Y5" s="15">
+      <c r="Y5" s="14">
         <f>AVERAGE(D5,H5,L5,P5,T5)</f>
         <v>1.4859844647078679E-2</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="14">
         <f>AVERAGE(E5,I5,M5,Q5,U5)</f>
         <v>4.7763786365609797E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="14">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="13">
         <v>2</v>
       </c>
       <c r="B6" s="1">
@@ -10935,25 +9936,25 @@
       <c r="U6" s="1">
         <v>1.18540832826547E-2</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="14">
         <f t="shared" ref="W6:W14" si="0">AVERAGE(B6,F6,J6,N6,R6)</f>
         <v>5.0039721577641902E-2</v>
       </c>
-      <c r="X6" s="15">
+      <c r="X6" s="14">
         <f t="shared" ref="X6:X14" si="1">AVERAGE(C6,G6,K6,O6,S6)</f>
         <v>9.1752132562015726E-2</v>
       </c>
-      <c r="Y6" s="15">
+      <c r="Y6" s="14">
         <f t="shared" ref="Y6:Y14" si="2">AVERAGE(D6,H6,L6,P6,T6)</f>
         <v>2.2624658190890139E-2</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="14">
         <f t="shared" ref="Z6:Z14" si="3">AVERAGE(E6,I6,M6,Q6,U6)</f>
         <v>6.9556301500609584E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="14">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="13">
         <v>3</v>
       </c>
       <c r="B7" s="1">
@@ -11016,25 +10017,25 @@
       <c r="U7" s="1">
         <v>2.9314400742972101E-2</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="14">
         <f t="shared" si="0"/>
         <v>5.0823869903828679E-2</v>
       </c>
-      <c r="X7" s="15">
+      <c r="X7" s="14">
         <f t="shared" si="1"/>
         <v>6.7911668900001027E-2</v>
       </c>
-      <c r="Y7" s="15">
+      <c r="Y7" s="14">
         <f t="shared" si="2"/>
         <v>2.8781906722881299E-2</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="14">
         <f t="shared" si="3"/>
         <v>2.3558652232835941E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
-      <c r="A8" s="14">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
         <v>4</v>
       </c>
       <c r="B8" s="1">
@@ -11097,25 +10098,25 @@
       <c r="U8" s="1">
         <v>3.1959903388474799E-2</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="14">
         <f t="shared" si="0"/>
         <v>5.2278896358855145E-2</v>
       </c>
-      <c r="X8" s="15">
+      <c r="X8" s="14">
         <f t="shared" si="1"/>
         <v>5.2521053262302365E-2</v>
       </c>
-      <c r="Y8" s="15">
+      <c r="Y8" s="14">
         <f t="shared" si="2"/>
         <v>2.3443910623045777E-2</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="14">
         <f t="shared" si="3"/>
         <v>2.4796972620092499E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="14">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
         <v>5</v>
       </c>
       <c r="B9" s="1">
@@ -11178,25 +10179,25 @@
       <c r="U9" s="1">
         <v>3.98964113249827E-2</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="14">
         <f t="shared" si="0"/>
         <v>7.291268398509293E-2</v>
       </c>
-      <c r="X9" s="15">
+      <c r="X9" s="14">
         <f t="shared" si="1"/>
         <v>6.2279134119902713E-2</v>
       </c>
-      <c r="Y9" s="15">
+      <c r="Y9" s="14">
         <f t="shared" si="2"/>
         <v>2.4198102210456318E-2</v>
       </c>
-      <c r="Z9" s="15">
+      <c r="Z9" s="14">
         <f t="shared" si="3"/>
         <v>3.8404406900141741E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="14">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
         <v>6</v>
       </c>
       <c r="B10" s="1">
@@ -11259,25 +10260,25 @@
       <c r="U10" s="1">
         <v>4.3071014499585898E-2</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="14">
         <f t="shared" si="0"/>
         <v>7.6627645146862627E-2</v>
       </c>
-      <c r="X10" s="15">
+      <c r="X10" s="14">
         <f t="shared" si="1"/>
         <v>5.4375919207765397E-2</v>
       </c>
-      <c r="Y10" s="15">
+      <c r="Y10" s="14">
         <f t="shared" si="2"/>
         <v>2.06941857044808E-2</v>
       </c>
-      <c r="Z10" s="15">
+      <c r="Z10" s="14">
         <f t="shared" si="3"/>
         <v>3.9039327535062382E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
-      <c r="A11" s="14">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
         <v>7</v>
       </c>
       <c r="B11" s="1">
@@ -11340,25 +10341,25 @@
       <c r="U11" s="1">
         <v>4.3071014499585898E-2</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="14">
         <f t="shared" si="0"/>
         <v>7.7156745675963145E-2</v>
       </c>
-      <c r="X11" s="15">
+      <c r="X11" s="14">
         <f t="shared" si="1"/>
         <v>4.7061445488742221E-2</v>
       </c>
-      <c r="Y11" s="15">
+      <c r="Y11" s="14">
         <f t="shared" si="2"/>
         <v>1.7737873460983541E-2</v>
       </c>
-      <c r="Z11" s="15">
+      <c r="Z11" s="14">
         <f t="shared" si="3"/>
         <v>3.9039327535062382E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
-      <c r="A12" s="14">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
         <v>8</v>
       </c>
       <c r="B12" s="1">
@@ -11421,25 +10422,25 @@
       <c r="U12" s="1">
         <v>4.3071014499585898E-2</v>
       </c>
-      <c r="W12" s="15">
+      <c r="W12" s="14">
         <f t="shared" si="0"/>
         <v>7.7156745675963145E-2</v>
       </c>
-      <c r="X12" s="15">
+      <c r="X12" s="14">
         <f t="shared" si="1"/>
         <v>4.117876480264946E-2</v>
       </c>
-      <c r="Y12" s="15">
+      <c r="Y12" s="14">
         <f t="shared" si="2"/>
         <v>1.5520639278360598E-2</v>
       </c>
-      <c r="Z12" s="15">
+      <c r="Z12" s="14">
         <f t="shared" si="3"/>
         <v>3.9039327535062382E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
-      <c r="A13" s="14">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
         <v>9</v>
       </c>
       <c r="B13" s="1">
@@ -11502,25 +10503,25 @@
       <c r="U13" s="1">
         <v>4.3071014499585898E-2</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="14">
         <f t="shared" si="0"/>
         <v>7.7156745675963145E-2</v>
       </c>
-      <c r="X13" s="15">
+      <c r="X13" s="14">
         <f t="shared" si="1"/>
         <v>3.6603346491243957E-2</v>
       </c>
-      <c r="Y13" s="15">
+      <c r="Y13" s="14">
         <f t="shared" si="2"/>
         <v>1.3796123802987198E-2</v>
       </c>
-      <c r="Z13" s="15">
+      <c r="Z13" s="14">
         <f t="shared" si="3"/>
         <v>3.9039327535062382E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
-      <c r="A14" s="14">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
         <v>10</v>
       </c>
       <c r="B14" s="1">
@@ -11583,43 +10584,43 @@
       <c r="U14" s="1">
         <v>4.3071014499585898E-2</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="14">
         <f t="shared" si="0"/>
         <v>7.7156745675963145E-2</v>
       </c>
-      <c r="X14" s="15">
+      <c r="X14" s="14">
         <f t="shared" si="1"/>
         <v>3.2943011842119556E-2</v>
       </c>
-      <c r="Y14" s="15">
+      <c r="Y14" s="14">
         <f t="shared" si="2"/>
         <v>1.241651142268846E-2</v>
       </c>
-      <c r="Z14" s="15">
+      <c r="Z14" s="14">
         <f t="shared" si="3"/>
         <v>3.9039327535062382E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="R2:U2"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="W2:Z2"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="F2:I2"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R2:U2"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="W2:Z2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11634,15 +10635,15 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -11656,7 +10657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11670,7 +10671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -11684,7 +10685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -11698,7 +10699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -11712,7 +10713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -11726,7 +10727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -11740,7 +10741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -11754,7 +10755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -11768,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -11782,7 +10783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>0</v>
       </c>
@@ -11796,7 +10797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <f>AVERAGE(A2:A11)</f>
         <v>0</v>
@@ -11827,16 +10828,16 @@
       <selection activeCell="C2" sqref="C2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -11850,7 +10851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -11864,7 +10865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.3333333333333298E-2</v>
       </c>
@@ -11878,7 +10879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4.4444444444444398E-2</v>
       </c>
@@ -11892,7 +10893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.3333333333333298E-2</v>
       </c>
@@ -11906,7 +10907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.04</v>
       </c>
@@ -11920,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3.3333333333333298E-2</v>
       </c>
@@ -11934,7 +10935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.8571428571428501E-2</v>
       </c>
@@ -11948,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2.5000000000000001E-2</v>
       </c>
@@ -11962,7 +10963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2.2222222222222199E-2</v>
       </c>
@@ -11976,7 +10977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>0.02</v>
       </c>
@@ -11990,7 +10991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>AVERAGE(A2:A11)</f>
         <v>2.8023809523809499E-2</v>
@@ -12021,16 +11022,16 @@
       <selection activeCell="C2" sqref="C2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -12044,7 +11045,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -12058,7 +11059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1.6129032258064498E-2</v>
       </c>
@@ -12072,7 +11073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.2258064516128997E-2</v>
       </c>
@@ -12086,7 +11087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.4193548387096701E-2</v>
       </c>
@@ -12100,7 +11101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.5806451612903201E-2</v>
       </c>
@@ -12114,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.1505376344085999E-2</v>
       </c>
@@ -12128,7 +11129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1.8433179723502301E-2</v>
       </c>
@@ -12142,7 +11143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.6129032258064498E-2</v>
       </c>
@@ -12156,7 +11157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.4336917562724E-2</v>
       </c>
@@ -12170,7 +11171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.2903225806451601E-2</v>
       </c>
@@ -12184,7 +11185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>AVERAGE(A2:A11)</f>
         <v>1.8169482846902181E-2</v>
@@ -12215,16 +11216,16 @@
       <selection activeCell="C2" sqref="C2:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -12238,7 +11239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4.2553191489361701E-2</v>
       </c>
@@ -12252,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.1914893617021198E-2</v>
       </c>
@@ -12266,7 +11267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.54609929078014E-2</v>
       </c>
@@ -12280,7 +11281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3.1914893617021198E-2</v>
       </c>
@@ -12294,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.9787234042553099E-2</v>
       </c>
@@ -12308,7 +11309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.48226950354609E-2</v>
       </c>
@@ -12322,7 +11323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.1276595744680799E-2</v>
       </c>
@@ -12336,7 +11337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.8617021276595699E-2</v>
       </c>
@@ -12350,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.6548463356973998E-2</v>
       </c>
@@ -12364,7 +11365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.4893617021276499E-2</v>
       </c>
@@ -12378,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>AVERAGE(A2:A11)</f>
         <v>2.6778959810874647E-2</v>
@@ -12409,16 +11410,16 @@
       <selection activeCell="D12" activeCellId="1" sqref="B12 D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="10" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="10" width="20.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>2</v>
       </c>
@@ -12432,7 +11433,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>3.1746031746031703E-2</v>
       </c>
@@ -12446,7 +11447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3.1746031746031703E-2</v>
       </c>
@@ -12460,7 +11461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3.1746031746031703E-2</v>
       </c>
@@ -12474,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2.77777777777777E-2</v>
       </c>
@@ -12488,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2.53968253968253E-2</v>
       </c>
@@ -12502,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2.3809523809523801E-2</v>
       </c>
@@ -12516,7 +11517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2.04081632653061E-2</v>
       </c>
@@ -12530,7 +11531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1.7857142857142801E-2</v>
       </c>
@@ -12544,7 +11545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1.5873015873015799E-2</v>
       </c>
@@ -12558,7 +11559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1.42857142857142E-2</v>
       </c>
@@ -12572,7 +11573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <f>AVERAGE(A2:A11)</f>
         <v>2.4064625850340079E-2</v>

--- a/utils/evaluation&results_test.xlsx
+++ b/utils/evaluation&results_test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Joao.Manso\Desktop\Personal\Github\projects\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{923FDA81-97E3-4BCD-8F31-5DD95EEE7182}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF3872B5-3527-4E48-802C-FCFB4F2A49BD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A74677D9-22E8-9C4C-838B-280AB31EB457}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{A74677D9-22E8-9C4C-838B-280AB31EB457}"/>
   </bookViews>
   <sheets>
     <sheet name="average_both_each" sheetId="14" r:id="rId1"/>
@@ -192,7 +192,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -207,13 +207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,12 +407,19 @@
     <xf numFmtId="167" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,17 +429,23 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -452,28 +459,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8816,7 +8810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90603A28-389D-184E-BAC9-79BB8443D46B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9456,8 +9450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2DA183B-AEE9-3E40-A53D-0D2D5EDFD43B}">
   <dimension ref="B1:G9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9469,135 +9463,135 @@
   <sheetData>
     <row r="1" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="28" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="37"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="21"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="17" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="32">
+      <c r="B4" s="19">
         <v>0.01</v>
       </c>
-      <c r="C4" s="33">
-        <v>0</v>
-      </c>
-      <c r="D4" s="33">
-        <v>0</v>
-      </c>
-      <c r="E4" s="33">
-        <v>0</v>
-      </c>
-      <c r="F4" s="33">
+      <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
+        <v>0</v>
+      </c>
+      <c r="E4" s="20">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="32">
+      <c r="B5" s="19">
         <v>0.05</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="20">
         <v>2.8023809523809499E-2</v>
       </c>
-      <c r="D5" s="33">
-        <v>0</v>
-      </c>
-      <c r="E5" s="33">
+      <c r="D5" s="20">
+        <v>0</v>
+      </c>
+      <c r="E5" s="20">
         <v>2.9948717948717906E-2</v>
       </c>
-      <c r="F5" s="33">
+      <c r="F5" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="32">
+      <c r="B6" s="19">
         <v>0.1</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="20">
         <v>1.8169482846902181E-2</v>
       </c>
-      <c r="D6" s="33">
-        <v>0</v>
-      </c>
-      <c r="E6" s="33">
+      <c r="D6" s="20">
+        <v>0</v>
+      </c>
+      <c r="E6" s="20">
         <v>4.029776674937964E-2</v>
       </c>
-      <c r="F6" s="33">
+      <c r="F6" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="32">
+      <c r="B7" s="19">
         <v>0.15</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="20">
         <v>2.6778959810874647E-2</v>
       </c>
-      <c r="D7" s="33">
-        <v>0</v>
-      </c>
-      <c r="E7" s="33">
+      <c r="D7" s="20">
+        <v>0</v>
+      </c>
+      <c r="E7" s="20">
         <v>4.2739459122437776E-2</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="32">
+      <c r="B8" s="19">
         <v>0.2</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="20">
         <v>2.4064625850340079E-2</v>
       </c>
-      <c r="D8" s="33">
-        <v>0</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="D8" s="20">
+        <v>0</v>
+      </c>
+      <c r="E8" s="20">
         <v>3.3858395286966672E-2</v>
       </c>
-      <c r="F8" s="33">
+      <c r="F8" s="20">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C9" s="35">
+      <c r="B9" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" s="36">
         <f>AVERAGE(C4:C8)</f>
         <v>1.9407375606385283E-2</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="36">
         <f t="shared" ref="D9:F9" si="0">AVERAGE(D4:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="37">
         <f t="shared" si="0"/>
         <v>2.9368867821500399E-2</v>
       </c>
-      <c r="F9" s="36">
+      <c r="F9" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -9629,90 +9623,90 @@
   <sheetData>
     <row r="1" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="19" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="19" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="19" t="s">
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="19" t="s">
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-      <c r="U2" s="21"/>
-      <c r="W2" s="19"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="20"/>
-      <c r="Z2" s="21"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="24"/>
+      <c r="W2" s="22"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="24"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="18" t="s">
+      <c r="C3" s="29"/>
+      <c r="D3" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="22" t="s">
+      <c r="E3" s="30"/>
+      <c r="F3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="23" t="s">
+      <c r="G3" s="28"/>
+      <c r="H3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="22" t="s">
+      <c r="I3" s="27"/>
+      <c r="J3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="23" t="s">
+      <c r="K3" s="28"/>
+      <c r="L3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="23"/>
-      <c r="N3" s="22" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="22"/>
-      <c r="P3" s="23" t="s">
+      <c r="O3" s="28"/>
+      <c r="P3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="24" t="s">
+      <c r="Q3" s="27"/>
+      <c r="R3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="S3" s="25"/>
-      <c r="T3" s="23" t="s">
+      <c r="S3" s="26"/>
+      <c r="T3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="U3" s="23"/>
-      <c r="W3" s="24" t="s">
+      <c r="U3" s="27"/>
+      <c r="W3" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="X3" s="25"/>
-      <c r="Y3" s="23" t="s">
+      <c r="X3" s="26"/>
+      <c r="Y3" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="Z3" s="23"/>
+      <c r="Z3" s="27"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
@@ -10603,24 +10597,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R2:U2"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="W3:X3"/>
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="W2:Z2"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:I2"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
